--- a/Excel/DN0001.xlsx
+++ b/Excel/DN0001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
     <t>Đơn nhập DN0001</t>
   </si>
@@ -48,6 +48,18 @@
   </si>
   <si>
     <t>Chi tiết đơn nhập</t>
+  </si>
+  <si>
+    <t>Mã mặt hàng</t>
+  </si>
+  <si>
+    <t>Mã khu vực</t>
+  </si>
+  <si>
+    <t>Số lượng nhập</t>
+  </si>
+  <si>
+    <t>Số lượng còn lại</t>
   </si>
   <si>
     <t>MH_ABC_001</t>
@@ -105,19 +117,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="20.0" customWidth="true"/>
+    <col min="2" max="2" width="20.0" customWidth="true"/>
+    <col min="3" max="3" width="20.0" customWidth="true"/>
+    <col min="4" max="4" width="20.0" customWidth="true"/>
+    <col min="5" max="5" width="20.0" customWidth="true"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -125,36 +147,36 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="1">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="1">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="1">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="s" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" t="s" s="1">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s" s="1">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="1">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="1">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" t="s" s="1">
         <v>10</v>
       </c>
     </row>
@@ -164,87 +186,104 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="A5" t="s" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s" s="1">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="1">
         <v>13</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" t="s" s="1">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="1">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s" s="1">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s" s="1">
+        <v>17</v>
+      </c>
+      <c r="D6" t="n" s="1">
         <v>2500.0</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E6" t="n" s="1">
         <v>2150.0</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="n">
+    <row r="7">
+      <c r="A7" t="s" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s" s="1">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s" s="1">
+        <v>17</v>
+      </c>
+      <c r="D7" t="n" s="1">
         <v>3000.0</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E7" t="n" s="1">
         <v>2650.0</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" t="n">
-        <v>2400.0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>2400.0</v>
-      </c>
-    </row>
     <row r="8">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" t="n">
-        <v>2400.0</v>
-      </c>
-      <c r="E8" t="n">
+      <c r="A8" t="s" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s" s="1">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s" s="1">
+        <v>20</v>
+      </c>
+      <c r="D8" t="n" s="1">
+        <v>2400.0</v>
+      </c>
+      <c r="E8" t="n" s="1">
         <v>2400.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" t="n">
+      <c r="A9" t="s" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s" s="1">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s" s="1">
+        <v>20</v>
+      </c>
+      <c r="D9" t="n" s="1">
+        <v>2400.0</v>
+      </c>
+      <c r="E9" t="n" s="1">
+        <v>2400.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="1">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s" s="1">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s" s="1">
+        <v>20</v>
+      </c>
+      <c r="D10" t="n" s="1">
         <v>5800.0</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E10" t="n" s="1">
         <v>5700.0</v>
       </c>
     </row>
